--- a/data/nouns/stats.xlsx
+++ b/data/nouns/stats.xlsx
@@ -10,7 +10,10 @@
     <sheet name="stats" sheetId="1" r:id="rId1"/>
     <sheet name="count" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">stats!$F$1:$F$103</definedName>
+  </definedNames>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -699,7 +702,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -834,6 +837,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF242729"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="33">
@@ -1177,8 +1186,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1232,6 +1242,448 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-IN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="2.9213970513382287E-2"/>
+          <c:y val="2.8252405949256341E-2"/>
+          <c:w val="0.94961870675256499"/>
+          <c:h val="0.8326195683872849"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:yVal>
+            <c:numRef>
+              <c:f>stats!$K$1:$K$103</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="103"/>
+                <c:pt idx="0">
+                  <c:v>794</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>781</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>777</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>746</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>740</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>728</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>659</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>617</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>599</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>719</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>689</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>622</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>574</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>573</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>568</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>786</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>785</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>773</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>758</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>598</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>540</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>746</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>731</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>731</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>719</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>697</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>667</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>636</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>593</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>558</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>489</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>483</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>178</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>761</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>711</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>654</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>618</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>485</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>821</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>692</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>595</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>583</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>580</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>499</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>611</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>547</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>521</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>491</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>483</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>355</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>347</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>760</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>672</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>669</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>642</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>642</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>636</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>620</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>595</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>447</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>837</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>837</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>835</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>826</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>818</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>815</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>809</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>809</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>792</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>791</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>790</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>777</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>776</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>767</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>762</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>741</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>718</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>707</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>707</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>706</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>699</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>696</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>687</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>662</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>653</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>648</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>438</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>412</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>229</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>822</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>811</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>810</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>810</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>805</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>803</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>799</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>766</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>763</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>713</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>686</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>676</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="164159872"/>
+        <c:axId val="159171328"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="164159872"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="159171328"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="159171328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="164159872"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1521,10 +1973,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I103"/>
+  <dimension ref="A1:L103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="F103" sqref="F92:F103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1533,1912 +1985,2561 @@
     <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="C1">
-        <v>72</v>
+        <v>99</v>
       </c>
       <c r="D1">
-        <v>165</v>
+        <v>206</v>
       </c>
       <c r="E1">
-        <v>261</v>
+        <v>312</v>
       </c>
       <c r="F1" t="s">
-        <v>2</v>
+        <v>48</v>
       </c>
       <c r="G1">
         <f>RANK(C1,C$1:C$103,1)</f>
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="H1">
         <f>RANK(D1,D$1:D$103,1)</f>
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="I1">
         <f>RANK(E1,E$1:E$103,1)</f>
+        <v>10</v>
+      </c>
+      <c r="J1" s="1">
+        <f>COUNTIF(F$1:F$103, F1)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K1">
+        <f>1000-D1</f>
+        <v>794</v>
+      </c>
+      <c r="L1">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="C2">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="D2">
-        <v>163</v>
+        <v>219</v>
       </c>
       <c r="E2">
-        <v>277</v>
+        <v>360</v>
       </c>
       <c r="F2" t="s">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="G2">
         <f>RANK(C2,C$1:C$103,1)</f>
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="H2">
         <f>RANK(D2,D$1:D$103,1)</f>
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="I2">
         <f>RANK(E2,E$1:E$103,1)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="J2" s="1">
+        <f>COUNTIF(F$1:F$103, F2)</f>
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <f>1000-D2</f>
+        <v>781</v>
+      </c>
+      <c r="L2">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="C3">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="D3">
-        <v>182</v>
+        <v>223</v>
       </c>
       <c r="E3">
-        <v>280</v>
+        <v>372</v>
       </c>
       <c r="F3" t="s">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="G3">
         <f>RANK(C3,C$1:C$103,1)</f>
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="H3">
         <f>RANK(D3,D$1:D$103,1)</f>
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="I3">
         <f>RANK(E3,E$1:E$103,1)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="J3" s="1">
+        <f>COUNTIF(F$1:F$103, F3)</f>
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <f>1000-D3</f>
+        <v>777</v>
+      </c>
+      <c r="L3">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>87</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>88</v>
       </c>
       <c r="C4">
-        <v>74</v>
+        <v>125</v>
       </c>
       <c r="D4">
-        <v>163</v>
+        <v>254</v>
       </c>
       <c r="E4">
-        <v>281</v>
+        <v>421</v>
       </c>
       <c r="F4" t="s">
-        <v>2</v>
+        <v>89</v>
       </c>
       <c r="G4">
         <f>RANK(C4,C$1:C$103,1)</f>
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="H4">
         <f>RANK(D4,D$1:D$103,1)</f>
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="I4">
         <f>RANK(E4,E$1:E$103,1)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+      <c r="J4" s="1">
+        <f>COUNTIF(F$1:F$103, F4)</f>
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <f>1000-D4</f>
+        <v>746</v>
+      </c>
+      <c r="L4">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="C5">
-        <v>85</v>
+        <v>114</v>
       </c>
       <c r="D5">
-        <v>174</v>
+        <v>260</v>
       </c>
       <c r="E5">
-        <v>291</v>
+        <v>426</v>
       </c>
       <c r="F5" t="s">
-        <v>2</v>
+        <v>74</v>
       </c>
       <c r="G5">
         <f>RANK(C5,C$1:C$103,1)</f>
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="H5">
         <f>RANK(D5,D$1:D$103,1)</f>
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="I5">
         <f>RANK(E5,E$1:E$103,1)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+      <c r="J5" s="1">
+        <f>COUNTIF(F$1:F$103, F5)</f>
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <f>1000-D5</f>
+        <v>740</v>
+      </c>
+      <c r="L5">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>95</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>96</v>
       </c>
       <c r="C6">
-        <v>86</v>
+        <v>132</v>
       </c>
       <c r="D6">
-        <v>179</v>
+        <v>272</v>
       </c>
       <c r="E6">
-        <v>293</v>
+        <v>435</v>
       </c>
       <c r="F6" t="s">
-        <v>23</v>
+        <v>95</v>
       </c>
       <c r="G6">
         <f>RANK(C6,C$1:C$103,1)</f>
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="H6">
         <f>RANK(D6,D$1:D$103,1)</f>
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="I6">
         <f>RANK(E6,E$1:E$103,1)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+      <c r="J6" s="1">
+        <f>COUNTIF(F$1:F$103, F6)</f>
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <f>1000-D6</f>
+        <v>728</v>
+      </c>
+      <c r="L6">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>127</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>128</v>
       </c>
       <c r="C7">
-        <v>84</v>
+        <v>154</v>
       </c>
       <c r="D7">
-        <v>185</v>
+        <v>341</v>
       </c>
       <c r="E7">
-        <v>303</v>
+        <v>512</v>
       </c>
       <c r="F7" t="s">
-        <v>2</v>
+        <v>129</v>
       </c>
       <c r="G7">
         <f>RANK(C7,C$1:C$103,1)</f>
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="H7">
         <f>RANK(D7,D$1:D$103,1)</f>
-        <v>8</v>
+        <v>62</v>
       </c>
       <c r="I7">
         <f>RANK(E7,E$1:E$103,1)</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+      <c r="J7" s="1">
+        <f>COUNTIF(F$1:F$103, F7)</f>
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <f>1000-D7</f>
+        <v>659</v>
+      </c>
+      <c r="L7">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>138</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>139</v>
       </c>
       <c r="C8">
-        <v>90</v>
+        <v>161</v>
       </c>
       <c r="D8">
-        <v>195</v>
+        <v>383</v>
       </c>
       <c r="E8">
-        <v>308</v>
+        <v>622</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>140</v>
       </c>
       <c r="G8">
         <f>RANK(C8,C$1:C$103,1)</f>
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="H8">
         <f>RANK(D8,D$1:D$103,1)</f>
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="I8">
         <f>RANK(E8,E$1:E$103,1)</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="J8" s="1">
+        <f>COUNTIF(F$1:F$103, F8)</f>
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <f>1000-D8</f>
+        <v>617</v>
+      </c>
+      <c r="L8">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>179</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>180</v>
       </c>
       <c r="C9">
-        <v>92</v>
+        <v>199</v>
       </c>
       <c r="D9">
-        <v>190</v>
+        <v>401</v>
       </c>
       <c r="E9">
-        <v>311</v>
+        <v>634</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>179</v>
       </c>
       <c r="G9">
         <f>RANK(C9,C$1:C$103,1)</f>
-        <v>16</v>
+        <v>81</v>
       </c>
       <c r="H9">
         <f>RANK(D9,D$1:D$103,1)</f>
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="I9">
         <f>RANK(E9,E$1:E$103,1)</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+      <c r="J9" s="1">
+        <f>COUNTIF(F$1:F$103, F9)</f>
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <f>1000-D9</f>
+        <v>599</v>
+      </c>
+      <c r="L9">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>46</v>
+        <v>90</v>
       </c>
       <c r="B10" t="s">
-        <v>47</v>
+        <v>91</v>
       </c>
       <c r="C10">
-        <v>99</v>
+        <v>129</v>
       </c>
       <c r="D10">
-        <v>206</v>
+        <v>281</v>
       </c>
       <c r="E10">
-        <v>312</v>
+        <v>455</v>
       </c>
       <c r="F10" t="s">
-        <v>48</v>
+        <v>92</v>
       </c>
       <c r="G10">
         <f>RANK(C10,C$1:C$103,1)</f>
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="H10">
         <f>RANK(D10,D$1:D$103,1)</f>
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="I10">
         <f>RANK(E10,E$1:E$103,1)</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="J10" s="1">
+        <f>COUNTIF(F$1:F$103, F10)</f>
+        <v>2</v>
+      </c>
+      <c r="K10">
+        <f>1000-D10</f>
+        <v>719</v>
+      </c>
+      <c r="L10">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>122</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>123</v>
       </c>
       <c r="C11">
-        <v>91</v>
+        <v>149</v>
       </c>
       <c r="D11">
-        <v>178</v>
+        <v>311</v>
       </c>
       <c r="E11">
-        <v>318</v>
+        <v>516</v>
       </c>
       <c r="F11" t="s">
-        <v>12</v>
+        <v>124</v>
       </c>
       <c r="G11">
         <f>RANK(C11,C$1:C$103,1)</f>
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="H11">
         <f>RANK(D11,D$1:D$103,1)</f>
-        <v>5</v>
+        <v>54</v>
       </c>
       <c r="I11">
         <f>RANK(E11,E$1:E$103,1)</f>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+      <c r="J11" s="1">
+        <f>COUNTIF(F$1:F$103, F11)</f>
+        <v>2</v>
+      </c>
+      <c r="K11">
+        <f>1000-D11</f>
+        <v>689</v>
+      </c>
+      <c r="L11">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>156</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>157</v>
       </c>
       <c r="C12">
-        <v>89</v>
+        <v>171</v>
       </c>
       <c r="D12">
-        <v>191</v>
+        <v>378</v>
       </c>
       <c r="E12">
-        <v>318</v>
+        <v>579</v>
       </c>
       <c r="F12" t="s">
-        <v>7</v>
+        <v>92</v>
       </c>
       <c r="G12">
         <f>RANK(C12,C$1:C$103,1)</f>
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="H12">
         <f>RANK(D12,D$1:D$103,1)</f>
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="I12">
         <f>RANK(E12,E$1:E$103,1)</f>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="J12" s="1">
+        <f>COUNTIF(F$1:F$103, F12)</f>
+        <v>2</v>
+      </c>
+      <c r="K12">
+        <f>1000-D12</f>
+        <v>622</v>
+      </c>
+      <c r="L12">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>194</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>195</v>
       </c>
       <c r="C13">
-        <v>84</v>
+        <v>221</v>
       </c>
       <c r="D13">
-        <v>197</v>
+        <v>426</v>
       </c>
       <c r="E13">
-        <v>322</v>
+        <v>625</v>
       </c>
       <c r="F13" t="s">
-        <v>12</v>
+        <v>191</v>
       </c>
       <c r="G13">
         <f>RANK(C13,C$1:C$103,1)</f>
-        <v>7</v>
+        <v>88</v>
       </c>
       <c r="H13">
         <f>RANK(D13,D$1:D$103,1)</f>
-        <v>15</v>
+        <v>82</v>
       </c>
       <c r="I13">
         <f>RANK(E13,E$1:E$103,1)</f>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+      <c r="J13" s="1">
+        <f>COUNTIF(F$1:F$103, F13)</f>
+        <v>2</v>
+      </c>
+      <c r="K13">
+        <f>1000-D13</f>
+        <v>574</v>
+      </c>
+      <c r="L13">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>181</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>182</v>
       </c>
       <c r="C14">
-        <v>88</v>
+        <v>200</v>
       </c>
       <c r="D14">
-        <v>189</v>
+        <v>427</v>
       </c>
       <c r="E14">
-        <v>328</v>
+        <v>677</v>
       </c>
       <c r="F14" t="s">
-        <v>12</v>
+        <v>124</v>
       </c>
       <c r="G14">
         <f>RANK(C14,C$1:C$103,1)</f>
-        <v>11</v>
+        <v>82</v>
       </c>
       <c r="H14">
         <f>RANK(D14,D$1:D$103,1)</f>
-        <v>9</v>
+        <v>83</v>
       </c>
       <c r="I14">
         <f>RANK(E14,E$1:E$103,1)</f>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+      <c r="J14" s="1">
+        <f>COUNTIF(F$1:F$103, F14)</f>
+        <v>2</v>
+      </c>
+      <c r="K14">
+        <f>1000-D14</f>
+        <v>573</v>
+      </c>
+      <c r="L14">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>189</v>
       </c>
       <c r="B15" t="s">
-        <v>11</v>
+        <v>190</v>
       </c>
       <c r="C15">
-        <v>79</v>
+        <v>217</v>
       </c>
       <c r="D15">
-        <v>190</v>
+        <v>432</v>
       </c>
       <c r="E15">
-        <v>329</v>
+        <v>609</v>
       </c>
       <c r="F15" t="s">
-        <v>12</v>
+        <v>191</v>
       </c>
       <c r="G15">
         <f>RANK(C15,C$1:C$103,1)</f>
-        <v>4</v>
+        <v>85</v>
       </c>
       <c r="H15">
         <f>RANK(D15,D$1:D$103,1)</f>
-        <v>10</v>
+        <v>84</v>
       </c>
       <c r="I15">
         <f>RANK(E15,E$1:E$103,1)</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+      <c r="J15" s="1">
+        <f>COUNTIF(F$1:F$103, F15)</f>
+        <v>2</v>
+      </c>
+      <c r="K15">
+        <f>1000-D15</f>
+        <v>568</v>
+      </c>
+      <c r="L15">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="B16" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="C16">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D16">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="E16">
-        <v>334</v>
+        <v>365</v>
       </c>
       <c r="F16" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="G16">
         <f>RANK(C16,C$1:C$103,1)</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H16">
         <f>RANK(D16,D$1:D$103,1)</f>
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I16">
         <f>RANK(E16,E$1:E$103,1)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="J16" s="1">
+        <f>COUNTIF(F$1:F$103, F16)</f>
+        <v>3</v>
+      </c>
+      <c r="K16">
+        <f>1000-D16</f>
+        <v>786</v>
+      </c>
+      <c r="L16">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="B17" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="C17">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="D17">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="E17">
-        <v>335</v>
+        <v>353</v>
       </c>
       <c r="F17" t="s">
-        <v>7</v>
+        <v>62</v>
       </c>
       <c r="G17">
         <f>RANK(C17,C$1:C$103,1)</f>
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H17">
         <f>RANK(D17,D$1:D$103,1)</f>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I17">
         <f>RANK(E17,E$1:E$103,1)</f>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="J17" s="1">
+        <f>COUNTIF(F$1:F$103, F17)</f>
+        <v>3</v>
+      </c>
+      <c r="K17">
+        <f>1000-D17</f>
+        <v>785</v>
+      </c>
+      <c r="L17">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>5</v>
+        <v>69</v>
       </c>
       <c r="B18" t="s">
-        <v>6</v>
+        <v>70</v>
       </c>
       <c r="C18">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="D18">
-        <v>191</v>
+        <v>227</v>
       </c>
       <c r="E18">
-        <v>339</v>
+        <v>365</v>
       </c>
       <c r="F18" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="G18">
         <f>RANK(C18,C$1:C$103,1)</f>
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="H18">
         <f>RANK(D18,D$1:D$103,1)</f>
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I18">
         <f>RANK(E18,E$1:E$103,1)</f>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="J18" s="1">
+        <f>COUNTIF(F$1:F$103, F18)</f>
+        <v>3</v>
+      </c>
+      <c r="K18">
+        <f>1000-D18</f>
+        <v>773</v>
+      </c>
+      <c r="L18">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="B19" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="C19">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="D19">
-        <v>208</v>
+        <v>242</v>
       </c>
       <c r="E19">
-        <v>344</v>
+        <v>405</v>
       </c>
       <c r="F19" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="G19">
         <f>RANK(C19,C$1:C$103,1)</f>
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="H19">
         <f>RANK(D19,D$1:D$103,1)</f>
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="I19">
         <f>RANK(E19,E$1:E$103,1)</f>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="J19" s="1">
+        <f>COUNTIF(F$1:F$103, F19)</f>
+        <v>3</v>
+      </c>
+      <c r="K19">
+        <f>1000-D19</f>
+        <v>758</v>
+      </c>
+      <c r="L19">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>51</v>
+        <v>149</v>
       </c>
       <c r="B20" t="s">
-        <v>52</v>
+        <v>150</v>
       </c>
       <c r="C20">
-        <v>100</v>
+        <v>166</v>
       </c>
       <c r="D20">
-        <v>233</v>
+        <v>402</v>
       </c>
       <c r="E20">
-        <v>345</v>
+        <v>692</v>
       </c>
       <c r="F20" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="G20">
         <f>RANK(C20,C$1:C$103,1)</f>
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="H20">
         <f>RANK(D20,D$1:D$103,1)</f>
-        <v>28</v>
+        <v>76</v>
       </c>
       <c r="I20">
         <f>RANK(E20,E$1:E$103,1)</f>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+      <c r="J20" s="1">
+        <f>COUNTIF(F$1:F$103, F20)</f>
+        <v>3</v>
+      </c>
+      <c r="K20">
+        <f>1000-D20</f>
+        <v>598</v>
+      </c>
+      <c r="L20">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>65</v>
+        <v>198</v>
       </c>
       <c r="B21" t="s">
-        <v>66</v>
+        <v>199</v>
       </c>
       <c r="C21">
-        <v>104</v>
+        <v>227</v>
       </c>
       <c r="D21">
-        <v>224</v>
+        <v>460</v>
       </c>
       <c r="E21">
-        <v>348</v>
+        <v>665</v>
       </c>
       <c r="F21" t="s">
-        <v>7</v>
+        <v>62</v>
       </c>
       <c r="G21">
         <f>RANK(C21,C$1:C$103,1)</f>
-        <v>29</v>
+        <v>89</v>
       </c>
       <c r="H21">
         <f>RANK(D21,D$1:D$103,1)</f>
-        <v>26</v>
+        <v>87</v>
       </c>
       <c r="I21">
         <f>RANK(E21,E$1:E$103,1)</f>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+      <c r="J21" s="1">
+        <f>COUNTIF(F$1:F$103, F21)</f>
+        <v>3</v>
+      </c>
+      <c r="K21">
+        <f>1000-D21</f>
+        <v>540</v>
+      </c>
+      <c r="L21">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>38</v>
+        <v>84</v>
       </c>
       <c r="B22" t="s">
-        <v>39</v>
+        <v>85</v>
       </c>
       <c r="C22">
-        <v>96</v>
+        <v>121</v>
       </c>
       <c r="D22">
-        <v>209</v>
+        <v>254</v>
       </c>
       <c r="E22">
-        <v>351</v>
+        <v>407</v>
       </c>
       <c r="F22" t="s">
-        <v>40</v>
+        <v>86</v>
       </c>
       <c r="G22">
         <f>RANK(C22,C$1:C$103,1)</f>
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="H22">
         <f>RANK(D22,D$1:D$103,1)</f>
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="I22">
         <f>RANK(E22,E$1:E$103,1)</f>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="J22" s="1">
+        <f>COUNTIF(F$1:F$103, F22)</f>
+        <v>4</v>
+      </c>
+      <c r="K22">
+        <f>1000-D22</f>
+        <v>746</v>
+      </c>
+      <c r="L22">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>67</v>
+        <v>108</v>
       </c>
       <c r="B23" t="s">
-        <v>68</v>
+        <v>109</v>
       </c>
       <c r="C23">
-        <v>105</v>
+        <v>139</v>
       </c>
       <c r="D23">
-        <v>215</v>
+        <v>269</v>
       </c>
       <c r="E23">
-        <v>353</v>
+        <v>424</v>
       </c>
       <c r="F23" t="s">
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="G23">
         <f>RANK(C23,C$1:C$103,1)</f>
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="H23">
         <f>RANK(D23,D$1:D$103,1)</f>
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="I23">
         <f>RANK(E23,E$1:E$103,1)</f>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="J23" s="1">
+        <f>COUNTIF(F$1:F$103, F23)</f>
+        <v>4</v>
+      </c>
+      <c r="K23">
+        <f>1000-D23</f>
+        <v>731</v>
+      </c>
+      <c r="L23">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>36</v>
+        <v>110</v>
       </c>
       <c r="B24" t="s">
-        <v>37</v>
+        <v>111</v>
       </c>
       <c r="C24">
-        <v>93</v>
+        <v>139</v>
       </c>
       <c r="D24">
-        <v>219</v>
+        <v>269</v>
       </c>
       <c r="E24">
-        <v>360</v>
+        <v>424</v>
       </c>
       <c r="F24" t="s">
-        <v>36</v>
+        <v>86</v>
       </c>
       <c r="G24">
         <f>RANK(C24,C$1:C$103,1)</f>
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="H24">
         <f>RANK(D24,D$1:D$103,1)</f>
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="I24">
         <f>RANK(E24,E$1:E$103,1)</f>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="J24" s="1">
+        <f>COUNTIF(F$1:F$103, F24)</f>
+        <v>4</v>
+      </c>
+      <c r="K24">
+        <f>1000-D24</f>
+        <v>731</v>
+      </c>
+      <c r="L24">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>60</v>
+        <v>101</v>
       </c>
       <c r="B25" t="s">
-        <v>61</v>
+        <v>102</v>
       </c>
       <c r="C25">
-        <v>102</v>
+        <v>133</v>
       </c>
       <c r="D25">
-        <v>214</v>
+        <v>281</v>
       </c>
       <c r="E25">
-        <v>365</v>
+        <v>454</v>
       </c>
       <c r="F25" t="s">
-        <v>62</v>
+        <v>103</v>
       </c>
       <c r="G25">
         <f>RANK(C25,C$1:C$103,1)</f>
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="H25">
         <f>RANK(D25,D$1:D$103,1)</f>
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="I25">
         <f>RANK(E25,E$1:E$103,1)</f>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="J25" s="1">
+        <f>COUNTIF(F$1:F$103, F25)</f>
+        <v>4</v>
+      </c>
+      <c r="K25">
+        <f>1000-D25</f>
+        <v>719</v>
+      </c>
+      <c r="L25">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>69</v>
+        <v>118</v>
       </c>
       <c r="B26" t="s">
-        <v>70</v>
+        <v>119</v>
       </c>
       <c r="C26">
-        <v>107</v>
+        <v>146</v>
       </c>
       <c r="D26">
-        <v>227</v>
+        <v>303</v>
       </c>
       <c r="E26">
-        <v>365</v>
+        <v>479</v>
       </c>
       <c r="F26" t="s">
-        <v>45</v>
+        <v>103</v>
       </c>
       <c r="G26">
         <f>RANK(C26,C$1:C$103,1)</f>
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="H26">
         <f>RANK(D26,D$1:D$103,1)</f>
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="I26">
         <f>RANK(E26,E$1:E$103,1)</f>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="J26" s="1">
+        <f>COUNTIF(F$1:F$103, F26)</f>
+        <v>4</v>
+      </c>
+      <c r="K26">
+        <f>1000-D26</f>
+        <v>697</v>
+      </c>
+      <c r="L26">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>41</v>
+        <v>116</v>
       </c>
       <c r="B27" t="s">
-        <v>42</v>
+        <v>117</v>
       </c>
       <c r="C27">
-        <v>96</v>
+        <v>145</v>
       </c>
       <c r="D27">
-        <v>223</v>
+        <v>333</v>
       </c>
       <c r="E27">
-        <v>372</v>
+        <v>524</v>
       </c>
       <c r="F27" t="s">
-        <v>41</v>
+        <v>103</v>
       </c>
       <c r="G27">
         <f>RANK(C27,C$1:C$103,1)</f>
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="H27">
         <f>RANK(D27,D$1:D$103,1)</f>
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="I27">
         <f>RANK(E27,E$1:E$103,1)</f>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+      <c r="J27" s="1">
+        <f>COUNTIF(F$1:F$103, F27)</f>
+        <v>4</v>
+      </c>
+      <c r="K27">
+        <f>1000-D27</f>
+        <v>667</v>
+      </c>
+      <c r="L27">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>49</v>
+        <v>160</v>
       </c>
       <c r="B28" t="s">
-        <v>50</v>
+        <v>161</v>
       </c>
       <c r="C28">
-        <v>100</v>
+        <v>174</v>
       </c>
       <c r="D28">
-        <v>223</v>
+        <v>364</v>
       </c>
       <c r="E28">
-        <v>377</v>
+        <v>604</v>
       </c>
       <c r="F28" t="s">
-        <v>7</v>
+        <v>162</v>
       </c>
       <c r="G28">
         <f>RANK(C28,C$1:C$103,1)</f>
-        <v>22</v>
+        <v>72</v>
       </c>
       <c r="H28">
         <f>RANK(D28,D$1:D$103,1)</f>
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="I28">
         <f>RANK(E28,E$1:E$103,1)</f>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+      <c r="J28" s="1">
+        <f>COUNTIF(F$1:F$103, F28)</f>
+        <v>4</v>
+      </c>
+      <c r="K28">
+        <f>1000-D28</f>
+        <v>636</v>
+      </c>
+      <c r="L28">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>80</v>
+        <v>185</v>
       </c>
       <c r="B29" t="s">
-        <v>81</v>
+        <v>186</v>
       </c>
       <c r="C29">
-        <v>118</v>
+        <v>211</v>
       </c>
       <c r="D29">
-        <v>238</v>
+        <v>407</v>
       </c>
       <c r="E29">
-        <v>377</v>
+        <v>625</v>
       </c>
       <c r="F29" t="s">
-        <v>2</v>
+        <v>103</v>
       </c>
       <c r="G29">
         <f>RANK(C29,C$1:C$103,1)</f>
-        <v>34</v>
+        <v>84</v>
       </c>
       <c r="H29">
         <f>RANK(D29,D$1:D$103,1)</f>
-        <v>31</v>
+        <v>79</v>
       </c>
       <c r="I29">
         <f>RANK(E29,E$1:E$103,1)</f>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+      <c r="J29" s="1">
+        <f>COUNTIF(F$1:F$103, F29)</f>
+        <v>4</v>
+      </c>
+      <c r="K29">
+        <f>1000-D29</f>
+        <v>593</v>
+      </c>
+      <c r="L29">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>76</v>
+        <v>171</v>
       </c>
       <c r="B30" t="s">
-        <v>77</v>
+        <v>172</v>
       </c>
       <c r="C30">
-        <v>118</v>
+        <v>182</v>
       </c>
       <c r="D30">
-        <v>234</v>
+        <v>442</v>
       </c>
       <c r="E30">
-        <v>379</v>
+        <v>748</v>
       </c>
       <c r="F30" t="s">
-        <v>12</v>
+        <v>162</v>
       </c>
       <c r="G30">
         <f>RANK(C30,C$1:C$103,1)</f>
-        <v>34</v>
+        <v>77</v>
       </c>
       <c r="H30">
         <f>RANK(D30,D$1:D$103,1)</f>
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="I30">
         <f>RANK(E30,E$1:E$103,1)</f>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+      <c r="J30" s="1">
+        <f>COUNTIF(F$1:F$103, F30)</f>
+        <v>4</v>
+      </c>
+      <c r="K30">
+        <f>1000-D30</f>
+        <v>558</v>
+      </c>
+      <c r="L30">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>57</v>
+        <v>196</v>
       </c>
       <c r="B31" t="s">
-        <v>58</v>
+        <v>197</v>
       </c>
       <c r="C31">
-        <v>102</v>
+        <v>227</v>
       </c>
       <c r="D31">
-        <v>239</v>
+        <v>511</v>
       </c>
       <c r="E31">
-        <v>398</v>
+        <v>826</v>
       </c>
       <c r="F31" t="s">
-        <v>59</v>
+        <v>162</v>
       </c>
       <c r="G31">
         <f>RANK(C31,C$1:C$103,1)</f>
-        <v>26</v>
+        <v>89</v>
       </c>
       <c r="H31">
         <f>RANK(D31,D$1:D$103,1)</f>
-        <v>32</v>
+        <v>92</v>
       </c>
       <c r="I31">
         <f>RANK(E31,E$1:E$103,1)</f>
-        <v>31</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+      <c r="J31" s="1">
+        <f>COUNTIF(F$1:F$103, F31)</f>
+        <v>4</v>
+      </c>
+      <c r="K31">
+        <f>1000-D31</f>
+        <v>489</v>
+      </c>
+      <c r="L31">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>71</v>
+        <v>210</v>
       </c>
       <c r="B32" t="s">
-        <v>72</v>
+        <v>211</v>
       </c>
       <c r="C32">
-        <v>110</v>
+        <v>247</v>
       </c>
       <c r="D32">
-        <v>240</v>
+        <v>517</v>
       </c>
       <c r="E32">
-        <v>400</v>
+        <v>811</v>
       </c>
       <c r="F32" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="G32">
         <f>RANK(C32,C$1:C$103,1)</f>
-        <v>32</v>
+        <v>96</v>
       </c>
       <c r="H32">
         <f>RANK(D32,D$1:D$103,1)</f>
-        <v>33</v>
+        <v>94</v>
       </c>
       <c r="I32">
         <f>RANK(E32,E$1:E$103,1)</f>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+      <c r="J32" s="1">
+        <f>COUNTIF(F$1:F$103, F32)</f>
+        <v>4</v>
+      </c>
+      <c r="K32">
+        <f>1000-D32</f>
+        <v>483</v>
+      </c>
+      <c r="L32">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>63</v>
+        <v>224</v>
       </c>
       <c r="B33" t="s">
-        <v>64</v>
+        <v>225</v>
       </c>
       <c r="C33">
-        <v>103</v>
+        <v>389</v>
       </c>
       <c r="D33">
-        <v>237</v>
+        <v>822</v>
       </c>
       <c r="E33">
-        <v>402</v>
+        <v>1252</v>
       </c>
       <c r="F33" t="s">
-        <v>12</v>
+        <v>162</v>
       </c>
       <c r="G33">
         <f>RANK(C33,C$1:C$103,1)</f>
-        <v>28</v>
+        <v>103</v>
       </c>
       <c r="H33">
         <f>RANK(D33,D$1:D$103,1)</f>
-        <v>30</v>
+        <v>103</v>
       </c>
       <c r="I33">
         <f>RANK(E33,E$1:E$103,1)</f>
-        <v>33</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+      <c r="J33" s="1">
+        <f>COUNTIF(F$1:F$103, F33)</f>
+        <v>4</v>
+      </c>
+      <c r="K33">
+        <f>1000-D33</f>
+        <v>178</v>
+      </c>
+      <c r="L33">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="B34" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="C34">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D34">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E34">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="F34" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="G34">
         <f>RANK(C34,C$1:C$103,1)</f>
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="H34">
         <f>RANK(D34,D$1:D$103,1)</f>
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I34">
         <f>RANK(E34,E$1:E$103,1)</f>
-        <v>34</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="J34" s="1">
+        <f>COUNTIF(F$1:F$103, F34)</f>
+        <v>5</v>
+      </c>
+      <c r="K34">
+        <f>1000-D34</f>
+        <v>761</v>
+      </c>
+      <c r="L34">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="B35" t="s">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="C35">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="D35">
-        <v>254</v>
+        <v>289</v>
       </c>
       <c r="E35">
-        <v>407</v>
+        <v>469</v>
       </c>
       <c r="F35" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="G35">
         <f>RANK(C35,C$1:C$103,1)</f>
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="H35">
         <f>RANK(D35,D$1:D$103,1)</f>
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="I35">
         <f>RANK(E35,E$1:E$103,1)</f>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+      <c r="J35" s="1">
+        <f>COUNTIF(F$1:F$103, F35)</f>
+        <v>5</v>
+      </c>
+      <c r="K35">
+        <f>1000-D35</f>
+        <v>711</v>
+      </c>
+      <c r="L35">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>78</v>
+        <v>134</v>
       </c>
       <c r="B36" t="s">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="C36">
-        <v>118</v>
+        <v>158</v>
       </c>
       <c r="D36">
-        <v>259</v>
+        <v>346</v>
       </c>
       <c r="E36">
-        <v>411</v>
+        <v>553</v>
       </c>
       <c r="F36" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="G36">
         <f>RANK(C36,C$1:C$103,1)</f>
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="H36">
         <f>RANK(D36,D$1:D$103,1)</f>
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="I36">
         <f>RANK(E36,E$1:E$103,1)</f>
-        <v>36</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+      <c r="J36" s="1">
+        <f>COUNTIF(F$1:F$103, F36)</f>
+        <v>5</v>
+      </c>
+      <c r="K36">
+        <f>1000-D36</f>
+        <v>654</v>
+      </c>
+      <c r="L36">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>87</v>
+        <v>173</v>
       </c>
       <c r="B37" t="s">
-        <v>88</v>
+        <v>174</v>
       </c>
       <c r="C37">
-        <v>125</v>
+        <v>183</v>
       </c>
       <c r="D37">
-        <v>254</v>
+        <v>382</v>
       </c>
       <c r="E37">
-        <v>421</v>
+        <v>595</v>
       </c>
       <c r="F37" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="G37">
         <f>RANK(C37,C$1:C$103,1)</f>
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="H37">
         <f>RANK(D37,D$1:D$103,1)</f>
-        <v>35</v>
+        <v>72</v>
       </c>
       <c r="I37">
         <f>RANK(E37,E$1:E$103,1)</f>
-        <v>37</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+      <c r="J37" s="1">
+        <f>COUNTIF(F$1:F$103, F37)</f>
+        <v>5</v>
+      </c>
+      <c r="K37">
+        <f>1000-D37</f>
+        <v>618</v>
+      </c>
+      <c r="L37">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>108</v>
+        <v>216</v>
       </c>
       <c r="B38" t="s">
-        <v>109</v>
+        <v>217</v>
       </c>
       <c r="C38">
-        <v>139</v>
+        <v>281</v>
       </c>
       <c r="D38">
-        <v>269</v>
+        <v>515</v>
       </c>
       <c r="E38">
-        <v>424</v>
+        <v>762</v>
       </c>
       <c r="F38" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="G38">
         <f>RANK(C38,C$1:C$103,1)</f>
-        <v>48</v>
+        <v>99</v>
       </c>
       <c r="H38">
         <f>RANK(D38,D$1:D$103,1)</f>
-        <v>39</v>
+        <v>93</v>
       </c>
       <c r="I38">
         <f>RANK(E38,E$1:E$103,1)</f>
-        <v>38</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+      <c r="J38" s="1">
+        <f>COUNTIF(F$1:F$103, F38)</f>
+        <v>5</v>
+      </c>
+      <c r="K38">
+        <f>1000-D38</f>
+        <v>485</v>
+      </c>
+      <c r="L38">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>110</v>
+        <v>21</v>
       </c>
       <c r="B39" t="s">
-        <v>111</v>
+        <v>22</v>
       </c>
       <c r="C39">
-        <v>139</v>
+        <v>86</v>
       </c>
       <c r="D39">
-        <v>269</v>
+        <v>179</v>
       </c>
       <c r="E39">
-        <v>424</v>
+        <v>293</v>
       </c>
       <c r="F39" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="G39">
         <f>RANK(C39,C$1:C$103,1)</f>
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="H39">
         <f>RANK(D39,D$1:D$103,1)</f>
-        <v>39</v>
+        <v>6</v>
       </c>
       <c r="I39">
         <f>RANK(E39,E$1:E$103,1)</f>
-        <v>38</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="J39" s="1">
+        <f>COUNTIF(F$1:F$103, F39)</f>
+        <v>6</v>
+      </c>
+      <c r="K39">
+        <f>1000-D39</f>
+        <v>821</v>
+      </c>
+      <c r="L39">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>74</v>
+        <v>130</v>
       </c>
       <c r="B40" t="s">
-        <v>75</v>
+        <v>131</v>
       </c>
       <c r="C40">
-        <v>114</v>
+        <v>156</v>
       </c>
       <c r="D40">
-        <v>260</v>
+        <v>308</v>
       </c>
       <c r="E40">
-        <v>426</v>
+        <v>476</v>
       </c>
       <c r="F40" t="s">
-        <v>74</v>
+        <v>23</v>
       </c>
       <c r="G40">
         <f>RANK(C40,C$1:C$103,1)</f>
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="H40">
         <f>RANK(D40,D$1:D$103,1)</f>
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="I40">
         <f>RANK(E40,E$1:E$103,1)</f>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+      <c r="J40" s="1">
+        <f>COUNTIF(F$1:F$103, F40)</f>
+        <v>6</v>
+      </c>
+      <c r="K40">
+        <f>1000-D40</f>
+        <v>692</v>
+      </c>
+      <c r="L40">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>95</v>
+        <v>163</v>
       </c>
       <c r="B41" t="s">
-        <v>96</v>
+        <v>164</v>
       </c>
       <c r="C41">
-        <v>132</v>
+        <v>178</v>
       </c>
       <c r="D41">
-        <v>272</v>
+        <v>405</v>
       </c>
       <c r="E41">
-        <v>435</v>
+        <v>662</v>
       </c>
       <c r="F41" t="s">
-        <v>95</v>
+        <v>23</v>
       </c>
       <c r="G41">
         <f>RANK(C41,C$1:C$103,1)</f>
-        <v>42</v>
+        <v>73</v>
       </c>
       <c r="H41">
         <f>RANK(D41,D$1:D$103,1)</f>
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="I41">
         <f>RANK(E41,E$1:E$103,1)</f>
-        <v>41</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+      <c r="J41" s="1">
+        <f>COUNTIF(F$1:F$103, F41)</f>
+        <v>6</v>
+      </c>
+      <c r="K41">
+        <f>1000-D41</f>
+        <v>595</v>
+      </c>
+      <c r="L41">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>120</v>
+        <v>183</v>
       </c>
       <c r="B42" t="s">
-        <v>121</v>
+        <v>184</v>
       </c>
       <c r="C42">
-        <v>148</v>
+        <v>202</v>
       </c>
       <c r="D42">
-        <v>287</v>
+        <v>417</v>
       </c>
       <c r="E42">
-        <v>437</v>
+        <v>632</v>
       </c>
       <c r="F42" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="G42">
         <f>RANK(C42,C$1:C$103,1)</f>
-        <v>54</v>
+        <v>83</v>
       </c>
       <c r="H42">
         <f>RANK(D42,D$1:D$103,1)</f>
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="I42">
         <f>RANK(E42,E$1:E$103,1)</f>
-        <v>42</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+      <c r="J42" s="1">
+        <f>COUNTIF(F$1:F$103, F42)</f>
+        <v>6</v>
+      </c>
+      <c r="K42">
+        <f>1000-D42</f>
+        <v>583</v>
+      </c>
+      <c r="L42">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>101</v>
+        <v>177</v>
       </c>
       <c r="B43" t="s">
-        <v>102</v>
+        <v>178</v>
       </c>
       <c r="C43">
-        <v>133</v>
+        <v>192</v>
       </c>
       <c r="D43">
-        <v>281</v>
+        <v>420</v>
       </c>
       <c r="E43">
-        <v>454</v>
+        <v>713</v>
       </c>
       <c r="F43" t="s">
-        <v>103</v>
+        <v>23</v>
       </c>
       <c r="G43">
         <f>RANK(C43,C$1:C$103,1)</f>
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="H43">
         <f>RANK(D43,D$1:D$103,1)</f>
-        <v>42</v>
+        <v>81</v>
       </c>
       <c r="I43">
         <f>RANK(E43,E$1:E$103,1)</f>
-        <v>43</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+      <c r="J43" s="1">
+        <f>COUNTIF(F$1:F$103, F43)</f>
+        <v>6</v>
+      </c>
+      <c r="K43">
+        <f>1000-D43</f>
+        <v>580</v>
+      </c>
+      <c r="L43">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>114</v>
+        <v>200</v>
       </c>
       <c r="B44" t="s">
-        <v>115</v>
+        <v>201</v>
       </c>
       <c r="C44">
-        <v>143</v>
+        <v>231</v>
       </c>
       <c r="D44">
-        <v>293</v>
+        <v>501</v>
       </c>
       <c r="E44">
-        <v>454</v>
+        <v>833</v>
       </c>
       <c r="F44" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="G44">
         <f>RANK(C44,C$1:C$103,1)</f>
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="H44">
         <f>RANK(D44,D$1:D$103,1)</f>
-        <v>47</v>
+        <v>90</v>
       </c>
       <c r="I44">
         <f>RANK(E44,E$1:E$103,1)</f>
-        <v>43</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+      <c r="J44" s="1">
+        <f>COUNTIF(F$1:F$103, F44)</f>
+        <v>6</v>
+      </c>
+      <c r="K44">
+        <f>1000-D44</f>
+        <v>499</v>
+      </c>
+      <c r="L44">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>90</v>
+        <v>151</v>
       </c>
       <c r="B45" t="s">
-        <v>91</v>
+        <v>152</v>
       </c>
       <c r="C45">
-        <v>129</v>
+        <v>167</v>
       </c>
       <c r="D45">
-        <v>281</v>
+        <v>389</v>
       </c>
       <c r="E45">
-        <v>455</v>
+        <v>651</v>
       </c>
       <c r="F45" t="s">
-        <v>92</v>
+        <v>153</v>
       </c>
       <c r="G45">
         <f>RANK(C45,C$1:C$103,1)</f>
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="H45">
         <f>RANK(D45,D$1:D$103,1)</f>
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="I45">
         <f>RANK(E45,E$1:E$103,1)</f>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="J45" s="1">
+        <f>COUNTIF(F$1:F$103, F45)</f>
+        <v>8</v>
+      </c>
+      <c r="K45">
+        <f>1000-D45</f>
+        <v>611</v>
+      </c>
+      <c r="L45">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="B46" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="C46">
-        <v>172</v>
+        <v>189</v>
       </c>
       <c r="D46">
-        <v>324</v>
+        <v>453</v>
       </c>
       <c r="E46">
-        <v>467</v>
+        <v>722</v>
       </c>
       <c r="F46" t="s">
-        <v>12</v>
+        <v>153</v>
       </c>
       <c r="G46">
         <f>RANK(C46,C$1:C$103,1)</f>
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="H46">
         <f>RANK(D46,D$1:D$103,1)</f>
-        <v>57</v>
+        <v>86</v>
       </c>
       <c r="I46">
         <f>RANK(E46,E$1:E$103,1)</f>
-        <v>46</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+      <c r="J46" s="1">
+        <f>COUNTIF(F$1:F$103, F46)</f>
+        <v>8</v>
+      </c>
+      <c r="K46">
+        <f>1000-D46</f>
+        <v>547</v>
+      </c>
+      <c r="L46">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>104</v>
+        <v>192</v>
       </c>
       <c r="B47" t="s">
-        <v>105</v>
+        <v>193</v>
       </c>
       <c r="C47">
-        <v>137</v>
+        <v>218</v>
       </c>
       <c r="D47">
-        <v>289</v>
+        <v>479</v>
       </c>
       <c r="E47">
-        <v>469</v>
+        <v>745</v>
       </c>
       <c r="F47" t="s">
-        <v>59</v>
+        <v>153</v>
       </c>
       <c r="G47">
         <f>RANK(C47,C$1:C$103,1)</f>
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="H47">
         <f>RANK(D47,D$1:D$103,1)</f>
-        <v>46</v>
+        <v>88</v>
       </c>
       <c r="I47">
         <f>RANK(E47,E$1:E$103,1)</f>
-        <v>47</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+      <c r="J47" s="1">
+        <f>COUNTIF(F$1:F$103, F47)</f>
+        <v>8</v>
+      </c>
+      <c r="K47">
+        <f>1000-D47</f>
+        <v>521</v>
+      </c>
+      <c r="L47">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>97</v>
+        <v>187</v>
       </c>
       <c r="B48" t="s">
-        <v>98</v>
+        <v>188</v>
       </c>
       <c r="C48">
-        <v>132</v>
+        <v>217</v>
       </c>
       <c r="D48">
-        <v>294</v>
+        <v>509</v>
       </c>
       <c r="E48">
-        <v>470</v>
+        <v>836</v>
       </c>
       <c r="F48" t="s">
-        <v>2</v>
+        <v>153</v>
       </c>
       <c r="G48">
         <f>RANK(C48,C$1:C$103,1)</f>
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="H48">
         <f>RANK(D48,D$1:D$103,1)</f>
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="I48">
         <f>RANK(E48,E$1:E$103,1)</f>
-        <v>48</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+      <c r="J48" s="1">
+        <f>COUNTIF(F$1:F$103, F48)</f>
+        <v>8</v>
+      </c>
+      <c r="K48">
+        <f>1000-D48</f>
+        <v>491</v>
+      </c>
+      <c r="L48">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>93</v>
+        <v>206</v>
       </c>
       <c r="B49" t="s">
-        <v>94</v>
+        <v>207</v>
       </c>
       <c r="C49">
-        <v>130</v>
+        <v>244</v>
       </c>
       <c r="D49">
-        <v>282</v>
+        <v>517</v>
       </c>
       <c r="E49">
-        <v>471</v>
+        <v>788</v>
       </c>
       <c r="F49" t="s">
-        <v>40</v>
+        <v>153</v>
       </c>
       <c r="G49">
         <f>RANK(C49,C$1:C$103,1)</f>
-        <v>41</v>
+        <v>94</v>
       </c>
       <c r="H49">
         <f>RANK(D49,D$1:D$103,1)</f>
-        <v>44</v>
+        <v>94</v>
       </c>
       <c r="I49">
         <f>RANK(E49,E$1:E$103,1)</f>
-        <v>49</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+      <c r="J49" s="1">
+        <f>COUNTIF(F$1:F$103, F49)</f>
+        <v>8</v>
+      </c>
+      <c r="K49">
+        <f>1000-D49</f>
+        <v>483</v>
+      </c>
+      <c r="L49">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>112</v>
+        <v>214</v>
       </c>
       <c r="B50" t="s">
-        <v>113</v>
+        <v>215</v>
       </c>
       <c r="C50">
-        <v>142</v>
+        <v>264</v>
       </c>
       <c r="D50">
-        <v>293</v>
+        <v>560</v>
       </c>
       <c r="E50">
-        <v>473</v>
+        <v>888</v>
       </c>
       <c r="F50" t="s">
-        <v>2</v>
+        <v>153</v>
       </c>
       <c r="G50">
         <f>RANK(C50,C$1:C$103,1)</f>
-        <v>50</v>
+        <v>98</v>
       </c>
       <c r="H50">
         <f>RANK(D50,D$1:D$103,1)</f>
-        <v>47</v>
+        <v>97</v>
       </c>
       <c r="I50">
         <f>RANK(E50,E$1:E$103,1)</f>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+      <c r="J50" s="1">
+        <f>COUNTIF(F$1:F$103, F50)</f>
+        <v>8</v>
+      </c>
+      <c r="K50">
+        <f>1000-D50</f>
+        <v>440</v>
+      </c>
+      <c r="L50">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>82</v>
+        <v>220</v>
       </c>
       <c r="B51" t="s">
-        <v>83</v>
+        <v>221</v>
       </c>
       <c r="C51">
-        <v>119</v>
+        <v>304</v>
       </c>
       <c r="D51">
-        <v>301</v>
+        <v>645</v>
       </c>
       <c r="E51">
-        <v>475</v>
+        <v>1016</v>
       </c>
       <c r="F51" t="s">
-        <v>7</v>
+        <v>153</v>
       </c>
       <c r="G51">
         <f>RANK(C51,C$1:C$103,1)</f>
-        <v>37</v>
+        <v>101</v>
       </c>
       <c r="H51">
         <f>RANK(D51,D$1:D$103,1)</f>
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="I51">
         <f>RANK(E51,E$1:E$103,1)</f>
-        <v>51</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+      <c r="J51" s="1">
+        <f>COUNTIF(F$1:F$103, F51)</f>
+        <v>8</v>
+      </c>
+      <c r="K51">
+        <f>1000-D51</f>
+        <v>355</v>
+      </c>
+      <c r="L51">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>130</v>
+        <v>218</v>
       </c>
       <c r="B52" t="s">
-        <v>131</v>
+        <v>219</v>
       </c>
       <c r="C52">
-        <v>156</v>
+        <v>297</v>
       </c>
       <c r="D52">
-        <v>308</v>
+        <v>653</v>
       </c>
       <c r="E52">
-        <v>476</v>
+        <v>1031</v>
       </c>
       <c r="F52" t="s">
-        <v>23</v>
+        <v>153</v>
       </c>
       <c r="G52">
         <f>RANK(C52,C$1:C$103,1)</f>
-        <v>58</v>
+        <v>100</v>
       </c>
       <c r="H52">
         <f>RANK(D52,D$1:D$103,1)</f>
-        <v>53</v>
+        <v>101</v>
       </c>
       <c r="I52">
         <f>RANK(E52,E$1:E$103,1)</f>
-        <v>52</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+      <c r="J52" s="1">
+        <f>COUNTIF(F$1:F$103, F52)</f>
+        <v>8</v>
+      </c>
+      <c r="K52">
+        <f>1000-D52</f>
+        <v>347</v>
+      </c>
+      <c r="L52">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>118</v>
+        <v>71</v>
       </c>
       <c r="B53" t="s">
-        <v>119</v>
+        <v>72</v>
       </c>
       <c r="C53">
-        <v>146</v>
+        <v>110</v>
       </c>
       <c r="D53">
-        <v>303</v>
+        <v>240</v>
       </c>
       <c r="E53">
-        <v>479</v>
+        <v>400</v>
       </c>
       <c r="F53" t="s">
-        <v>103</v>
+        <v>73</v>
       </c>
       <c r="G53">
         <f>RANK(C53,C$1:C$103,1)</f>
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="H53">
         <f>RANK(D53,D$1:D$103,1)</f>
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="I53">
         <f>RANK(E53,E$1:E$103,1)</f>
-        <v>53</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="J53" s="1">
+        <f>COUNTIF(F$1:F$103, F53)</f>
+        <v>9</v>
+      </c>
+      <c r="K53">
+        <f>1000-D53</f>
+        <v>760</v>
+      </c>
+      <c r="L53">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B54" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C54">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D54">
-        <v>314</v>
+        <v>328</v>
       </c>
       <c r="E54">
-        <v>481</v>
+        <v>515</v>
       </c>
       <c r="F54" t="s">
-        <v>12</v>
+        <v>73</v>
       </c>
       <c r="G54">
         <f>RANK(C54,C$1:C$103,1)</f>
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H54">
         <f>RANK(D54,D$1:D$103,1)</f>
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I54">
         <f>RANK(E54,E$1:E$103,1)</f>
-        <v>54</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+      <c r="J54" s="1">
+        <f>COUNTIF(F$1:F$103, F54)</f>
+        <v>9</v>
+      </c>
+      <c r="K54">
+        <f>1000-D54</f>
+        <v>672</v>
+      </c>
+      <c r="L54">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>99</v>
+        <v>136</v>
       </c>
       <c r="B55" t="s">
-        <v>100</v>
+        <v>137</v>
       </c>
       <c r="C55">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="D55">
-        <v>304</v>
+        <v>331</v>
       </c>
       <c r="E55">
-        <v>504</v>
+        <v>525</v>
       </c>
       <c r="F55" t="s">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="G55">
         <f>RANK(C55,C$1:C$103,1)</f>
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="H55">
         <f>RANK(D55,D$1:D$103,1)</f>
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="I55">
         <f>RANK(E55,E$1:E$103,1)</f>
-        <v>55</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+      <c r="J55" s="1">
+        <f>COUNTIF(F$1:F$103, F55)</f>
+        <v>9</v>
+      </c>
+      <c r="K55">
+        <f>1000-D55</f>
+        <v>669</v>
+      </c>
+      <c r="L55">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B56" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C56">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D56">
-        <v>341</v>
+        <v>358</v>
       </c>
       <c r="E56">
-        <v>512</v>
+        <v>552</v>
       </c>
       <c r="F56" t="s">
-        <v>129</v>
+        <v>73</v>
       </c>
       <c r="G56">
         <f>RANK(C56,C$1:C$103,1)</f>
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H56">
         <f>RANK(D56,D$1:D$103,1)</f>
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="I56">
         <f>RANK(E56,E$1:E$103,1)</f>
-        <v>56</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+      <c r="J56" s="1">
+        <f>COUNTIF(F$1:F$103, F56)</f>
+        <v>9</v>
+      </c>
+      <c r="K56">
+        <f>1000-D56</f>
+        <v>642</v>
+      </c>
+      <c r="L56">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="B57" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="C57">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="D57">
-        <v>328</v>
+        <v>358</v>
       </c>
       <c r="E57">
-        <v>515</v>
+        <v>570</v>
       </c>
       <c r="F57" t="s">
         <v>73</v>
       </c>
       <c r="G57">
         <f>RANK(C57,C$1:C$103,1)</f>
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H57">
         <f>RANK(D57,D$1:D$103,1)</f>
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="I57">
         <f>RANK(E57,E$1:E$103,1)</f>
-        <v>57</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+      <c r="J57" s="1">
+        <f>COUNTIF(F$1:F$103, F57)</f>
+        <v>9</v>
+      </c>
+      <c r="K57">
+        <f>1000-D57</f>
+        <v>642</v>
+      </c>
+      <c r="L57">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>122</v>
+        <v>143</v>
       </c>
       <c r="B58" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="C58">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="D58">
-        <v>311</v>
+        <v>364</v>
       </c>
       <c r="E58">
-        <v>516</v>
+        <v>568</v>
       </c>
       <c r="F58" t="s">
-        <v>124</v>
+        <v>73</v>
       </c>
       <c r="G58">
         <f>RANK(C58,C$1:C$103,1)</f>
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="H58">
         <f>RANK(D58,D$1:D$103,1)</f>
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="I58">
         <f>RANK(E58,E$1:E$103,1)</f>
-        <v>58</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+      <c r="J58" s="1">
+        <f>COUNTIF(F$1:F$103, F58)</f>
+        <v>9</v>
+      </c>
+      <c r="K58">
+        <f>1000-D58</f>
+        <v>636</v>
+      </c>
+      <c r="L58">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>106</v>
+        <v>169</v>
       </c>
       <c r="B59" t="s">
-        <v>107</v>
+        <v>170</v>
       </c>
       <c r="C59">
-        <v>138</v>
+        <v>181</v>
       </c>
       <c r="D59">
-        <v>313</v>
+        <v>380</v>
       </c>
       <c r="E59">
-        <v>523</v>
+        <v>608</v>
       </c>
       <c r="F59" t="s">
-        <v>2</v>
+        <v>73</v>
       </c>
       <c r="G59">
         <f>RANK(C59,C$1:C$103,1)</f>
-        <v>47</v>
+        <v>76</v>
       </c>
       <c r="H59">
         <f>RANK(D59,D$1:D$103,1)</f>
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="I59">
         <f>RANK(E59,E$1:E$103,1)</f>
-        <v>59</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+      <c r="J59" s="1">
+        <f>COUNTIF(F$1:F$103, F59)</f>
+        <v>9</v>
+      </c>
+      <c r="K59">
+        <f>1000-D59</f>
+        <v>620</v>
+      </c>
+      <c r="L59">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B60" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C60">
         <v>179</v>
       </c>
       <c r="D60">
-        <v>338</v>
+        <v>405</v>
       </c>
       <c r="E60">
-        <v>523</v>
+        <v>631</v>
       </c>
       <c r="F60" t="s">
-        <v>7</v>
+        <v>73</v>
       </c>
       <c r="G60">
         <f>RANK(C60,C$1:C$103,1)</f>
@@ -3446,1394 +4547,1880 @@
       </c>
       <c r="H60">
         <f>RANK(D60,D$1:D$103,1)</f>
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="I60">
         <f>RANK(E60,E$1:E$103,1)</f>
-        <v>59</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+      <c r="J60" s="1">
+        <f>COUNTIF(F$1:F$103, F60)</f>
+        <v>9</v>
+      </c>
+      <c r="K60">
+        <f>1000-D60</f>
+        <v>595</v>
+      </c>
+      <c r="L60">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>116</v>
+        <v>208</v>
       </c>
       <c r="B61" t="s">
-        <v>117</v>
+        <v>209</v>
       </c>
       <c r="C61">
-        <v>145</v>
+        <v>245</v>
       </c>
       <c r="D61">
-        <v>333</v>
+        <v>553</v>
       </c>
       <c r="E61">
-        <v>524</v>
+        <v>868</v>
       </c>
       <c r="F61" t="s">
-        <v>103</v>
+        <v>73</v>
       </c>
       <c r="G61">
         <f>RANK(C61,C$1:C$103,1)</f>
-        <v>52</v>
+        <v>95</v>
       </c>
       <c r="H61">
         <f>RANK(D61,D$1:D$103,1)</f>
-        <v>60</v>
+        <v>96</v>
       </c>
       <c r="I61">
         <f>RANK(E61,E$1:E$103,1)</f>
-        <v>61</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+      <c r="J61" s="1">
+        <f>COUNTIF(F$1:F$103, F61)</f>
+        <v>9</v>
+      </c>
+      <c r="K61">
+        <f>1000-D61</f>
+        <v>447</v>
+      </c>
+      <c r="L61">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>136</v>
+        <v>3</v>
       </c>
       <c r="B62" t="s">
-        <v>137</v>
+        <v>4</v>
       </c>
       <c r="C62">
-        <v>161</v>
+        <v>74</v>
       </c>
       <c r="D62">
-        <v>331</v>
+        <v>163</v>
       </c>
       <c r="E62">
-        <v>525</v>
+        <v>281</v>
       </c>
       <c r="F62" t="s">
-        <v>73</v>
+        <v>2</v>
       </c>
       <c r="G62">
         <f>RANK(C62,C$1:C$103,1)</f>
-        <v>61</v>
+        <v>2</v>
       </c>
       <c r="H62">
         <f>RANK(D62,D$1:D$103,1)</f>
-        <v>59</v>
+        <v>1</v>
       </c>
       <c r="I62">
         <f>RANK(E62,E$1:E$103,1)</f>
-        <v>62</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="J62" s="1">
+        <f>COUNTIF(F$1:F$103, F62)</f>
+        <v>10</v>
+      </c>
+      <c r="K62">
+        <f>1000-D62</f>
+        <v>837</v>
+      </c>
+      <c r="L62">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>154</v>
+        <v>8</v>
       </c>
       <c r="B63" t="s">
-        <v>155</v>
+        <v>9</v>
       </c>
       <c r="C63">
-        <v>169</v>
+        <v>79</v>
       </c>
       <c r="D63">
-        <v>347</v>
+        <v>163</v>
       </c>
       <c r="E63">
-        <v>539</v>
+        <v>277</v>
       </c>
       <c r="F63" t="s">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="G63">
         <f>RANK(C63,C$1:C$103,1)</f>
-        <v>69</v>
+        <v>4</v>
       </c>
       <c r="H63">
         <f>RANK(D63,D$1:D$103,1)</f>
-        <v>64</v>
+        <v>1</v>
       </c>
       <c r="I63">
         <f>RANK(E63,E$1:E$103,1)</f>
-        <v>63</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="J63" s="1">
+        <f>COUNTIF(F$1:F$103, F63)</f>
+        <v>10</v>
+      </c>
+      <c r="K63">
+        <f>1000-D63</f>
+        <v>837</v>
+      </c>
+      <c r="L63">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>125</v>
+        <v>0</v>
       </c>
       <c r="B64" t="s">
-        <v>126</v>
+        <v>1</v>
       </c>
       <c r="C64">
-        <v>151</v>
+        <v>72</v>
       </c>
       <c r="D64">
-        <v>358</v>
+        <v>165</v>
       </c>
       <c r="E64">
-        <v>552</v>
+        <v>261</v>
       </c>
       <c r="F64" t="s">
-        <v>73</v>
+        <v>2</v>
       </c>
       <c r="G64">
         <f>RANK(C64,C$1:C$103,1)</f>
-        <v>56</v>
+        <v>1</v>
       </c>
       <c r="H64">
         <f>RANK(D64,D$1:D$103,1)</f>
-        <v>66</v>
+        <v>3</v>
       </c>
       <c r="I64">
         <f>RANK(E64,E$1:E$103,1)</f>
-        <v>64</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="J64" s="1">
+        <f>COUNTIF(F$1:F$103, F64)</f>
+        <v>10</v>
+      </c>
+      <c r="K64">
+        <f>1000-D64</f>
+        <v>835</v>
+      </c>
+      <c r="L64">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>134</v>
+        <v>19</v>
       </c>
       <c r="B65" t="s">
-        <v>135</v>
+        <v>20</v>
       </c>
       <c r="C65">
-        <v>158</v>
+        <v>85</v>
       </c>
       <c r="D65">
-        <v>346</v>
+        <v>174</v>
       </c>
       <c r="E65">
-        <v>553</v>
+        <v>291</v>
       </c>
       <c r="F65" t="s">
-        <v>59</v>
+        <v>2</v>
       </c>
       <c r="G65">
         <f>RANK(C65,C$1:C$103,1)</f>
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="H65">
         <f>RANK(D65,D$1:D$103,1)</f>
-        <v>63</v>
+        <v>4</v>
       </c>
       <c r="I65">
         <f>RANK(E65,E$1:E$103,1)</f>
-        <v>65</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="J65" s="1">
+        <f>COUNTIF(F$1:F$103, F65)</f>
+        <v>10</v>
+      </c>
+      <c r="K65">
+        <f>1000-D65</f>
+        <v>826</v>
+      </c>
+      <c r="L65">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="B66" t="s">
-        <v>133</v>
+        <v>14</v>
       </c>
       <c r="C66">
-        <v>158</v>
+        <v>80</v>
       </c>
       <c r="D66">
-        <v>352</v>
+        <v>182</v>
       </c>
       <c r="E66">
-        <v>560</v>
+        <v>280</v>
       </c>
       <c r="F66" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G66">
         <f>RANK(C66,C$1:C$103,1)</f>
-        <v>59</v>
+        <v>6</v>
       </c>
       <c r="H66">
         <f>RANK(D66,D$1:D$103,1)</f>
-        <v>65</v>
+        <v>7</v>
       </c>
       <c r="I66">
         <f>RANK(E66,E$1:E$103,1)</f>
-        <v>66</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="J66" s="1">
+        <f>COUNTIF(F$1:F$103, F66)</f>
+        <v>10</v>
+      </c>
+      <c r="K66">
+        <f>1000-D66</f>
+        <v>818</v>
+      </c>
+      <c r="L66">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>143</v>
+        <v>17</v>
       </c>
       <c r="B67" t="s">
-        <v>144</v>
+        <v>18</v>
       </c>
       <c r="C67">
-        <v>165</v>
+        <v>84</v>
       </c>
       <c r="D67">
-        <v>364</v>
+        <v>185</v>
       </c>
       <c r="E67">
-        <v>568</v>
+        <v>303</v>
       </c>
       <c r="F67" t="s">
-        <v>73</v>
+        <v>2</v>
       </c>
       <c r="G67">
         <f>RANK(C67,C$1:C$103,1)</f>
-        <v>64</v>
+        <v>7</v>
       </c>
       <c r="H67">
         <f>RANK(D67,D$1:D$103,1)</f>
-        <v>68</v>
+        <v>8</v>
       </c>
       <c r="I67">
         <f>RANK(E67,E$1:E$103,1)</f>
-        <v>67</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="J67" s="1">
+        <f>COUNTIF(F$1:F$103, F67)</f>
+        <v>10</v>
+      </c>
+      <c r="K67">
+        <f>1000-D67</f>
+        <v>815</v>
+      </c>
+      <c r="L67">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>147</v>
+        <v>5</v>
       </c>
       <c r="B68" t="s">
-        <v>148</v>
+        <v>6</v>
       </c>
       <c r="C68">
-        <v>166</v>
+        <v>77</v>
       </c>
       <c r="D68">
-        <v>358</v>
+        <v>191</v>
       </c>
       <c r="E68">
-        <v>570</v>
+        <v>339</v>
       </c>
       <c r="F68" t="s">
-        <v>73</v>
+        <v>7</v>
       </c>
       <c r="G68">
         <f>RANK(C68,C$1:C$103,1)</f>
-        <v>65</v>
+        <v>3</v>
       </c>
       <c r="H68">
         <f>RANK(D68,D$1:D$103,1)</f>
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="I68">
         <f>RANK(E68,E$1:E$103,1)</f>
-        <v>68</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="J68" s="1">
+        <f>COUNTIF(F$1:F$103, F68)</f>
+        <v>10</v>
+      </c>
+      <c r="K68">
+        <f>1000-D68</f>
+        <v>809</v>
+      </c>
+      <c r="L68">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>156</v>
+        <v>26</v>
       </c>
       <c r="B69" t="s">
-        <v>157</v>
+        <v>27</v>
       </c>
       <c r="C69">
-        <v>171</v>
+        <v>89</v>
       </c>
       <c r="D69">
-        <v>378</v>
+        <v>191</v>
       </c>
       <c r="E69">
-        <v>579</v>
+        <v>318</v>
       </c>
       <c r="F69" t="s">
-        <v>92</v>
+        <v>7</v>
       </c>
       <c r="G69">
         <f>RANK(C69,C$1:C$103,1)</f>
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="H69">
         <f>RANK(D69,D$1:D$103,1)</f>
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="I69">
         <f>RANK(E69,E$1:E$103,1)</f>
-        <v>69</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="J69" s="1">
+        <f>COUNTIF(F$1:F$103, F69)</f>
+        <v>10</v>
+      </c>
+      <c r="K69">
+        <f>1000-D69</f>
+        <v>809</v>
+      </c>
+      <c r="L69">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>173</v>
+        <v>28</v>
       </c>
       <c r="B70" t="s">
-        <v>174</v>
+        <v>29</v>
       </c>
       <c r="C70">
-        <v>183</v>
+        <v>89</v>
       </c>
       <c r="D70">
-        <v>382</v>
+        <v>208</v>
       </c>
       <c r="E70">
-        <v>595</v>
+        <v>344</v>
       </c>
       <c r="F70" t="s">
-        <v>59</v>
+        <v>7</v>
       </c>
       <c r="G70">
         <f>RANK(C70,C$1:C$103,1)</f>
-        <v>78</v>
+        <v>12</v>
       </c>
       <c r="H70">
         <f>RANK(D70,D$1:D$103,1)</f>
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="I70">
         <f>RANK(E70,E$1:E$103,1)</f>
-        <v>70</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="J70" s="1">
+        <f>COUNTIF(F$1:F$103, F70)</f>
+        <v>10</v>
+      </c>
+      <c r="K70">
+        <f>1000-D70</f>
+        <v>792</v>
+      </c>
+      <c r="L70">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>160</v>
+        <v>38</v>
       </c>
       <c r="B71" t="s">
-        <v>161</v>
+        <v>39</v>
       </c>
       <c r="C71">
-        <v>174</v>
+        <v>96</v>
       </c>
       <c r="D71">
-        <v>364</v>
+        <v>209</v>
       </c>
       <c r="E71">
-        <v>604</v>
+        <v>351</v>
       </c>
       <c r="F71" t="s">
-        <v>162</v>
+        <v>40</v>
       </c>
       <c r="G71">
         <f>RANK(C71,C$1:C$103,1)</f>
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="H71">
         <f>RANK(D71,D$1:D$103,1)</f>
-        <v>68</v>
+        <v>19</v>
       </c>
       <c r="I71">
         <f>RANK(E71,E$1:E$103,1)</f>
-        <v>71</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="J71" s="1">
+        <f>COUNTIF(F$1:F$103, F71)</f>
+        <v>10</v>
+      </c>
+      <c r="K71">
+        <f>1000-D71</f>
+        <v>791</v>
+      </c>
+      <c r="L71">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>169</v>
+        <v>55</v>
       </c>
       <c r="B72" t="s">
-        <v>170</v>
+        <v>56</v>
       </c>
       <c r="C72">
-        <v>181</v>
+        <v>101</v>
       </c>
       <c r="D72">
-        <v>380</v>
+        <v>210</v>
       </c>
       <c r="E72">
-        <v>608</v>
+        <v>335</v>
       </c>
       <c r="F72" t="s">
-        <v>73</v>
+        <v>7</v>
       </c>
       <c r="G72">
         <f>RANK(C72,C$1:C$103,1)</f>
-        <v>76</v>
+        <v>25</v>
       </c>
       <c r="H72">
         <f>RANK(D72,D$1:D$103,1)</f>
-        <v>71</v>
+        <v>20</v>
       </c>
       <c r="I72">
         <f>RANK(E72,E$1:E$103,1)</f>
-        <v>72</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="J72" s="1">
+        <f>COUNTIF(F$1:F$103, F72)</f>
+        <v>10</v>
+      </c>
+      <c r="K72">
+        <f>1000-D72</f>
+        <v>790</v>
+      </c>
+      <c r="L72">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>189</v>
+        <v>49</v>
       </c>
       <c r="B73" t="s">
-        <v>190</v>
+        <v>50</v>
       </c>
       <c r="C73">
-        <v>217</v>
+        <v>100</v>
       </c>
       <c r="D73">
-        <v>432</v>
+        <v>223</v>
       </c>
       <c r="E73">
-        <v>609</v>
+        <v>377</v>
       </c>
       <c r="F73" t="s">
-        <v>191</v>
+        <v>7</v>
       </c>
       <c r="G73">
         <f>RANK(C73,C$1:C$103,1)</f>
-        <v>85</v>
+        <v>22</v>
       </c>
       <c r="H73">
         <f>RANK(D73,D$1:D$103,1)</f>
-        <v>84</v>
+        <v>24</v>
       </c>
       <c r="I73">
         <f>RANK(E73,E$1:E$103,1)</f>
-        <v>73</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="J73" s="1">
+        <f>COUNTIF(F$1:F$103, F73)</f>
+        <v>10</v>
+      </c>
+      <c r="K73">
+        <f>1000-D73</f>
+        <v>777</v>
+      </c>
+      <c r="L73">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>138</v>
+        <v>65</v>
       </c>
       <c r="B74" t="s">
-        <v>139</v>
+        <v>66</v>
       </c>
       <c r="C74">
-        <v>161</v>
+        <v>104</v>
       </c>
       <c r="D74">
-        <v>383</v>
+        <v>224</v>
       </c>
       <c r="E74">
-        <v>622</v>
+        <v>348</v>
       </c>
       <c r="F74" t="s">
-        <v>140</v>
+        <v>7</v>
       </c>
       <c r="G74">
         <f>RANK(C74,C$1:C$103,1)</f>
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="H74">
         <f>RANK(D74,D$1:D$103,1)</f>
-        <v>73</v>
+        <v>26</v>
       </c>
       <c r="I74">
         <f>RANK(E74,E$1:E$103,1)</f>
-        <v>74</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="J74" s="1">
+        <f>COUNTIF(F$1:F$103, F74)</f>
+        <v>10</v>
+      </c>
+      <c r="K74">
+        <f>1000-D74</f>
+        <v>776</v>
+      </c>
+      <c r="L74">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>185</v>
+        <v>51</v>
       </c>
       <c r="B75" t="s">
-        <v>186</v>
+        <v>52</v>
       </c>
       <c r="C75">
-        <v>211</v>
+        <v>100</v>
       </c>
       <c r="D75">
-        <v>407</v>
+        <v>233</v>
       </c>
       <c r="E75">
-        <v>625</v>
+        <v>345</v>
       </c>
       <c r="F75" t="s">
-        <v>103</v>
+        <v>7</v>
       </c>
       <c r="G75">
         <f>RANK(C75,C$1:C$103,1)</f>
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="H75">
         <f>RANK(D75,D$1:D$103,1)</f>
-        <v>79</v>
+        <v>28</v>
       </c>
       <c r="I75">
         <f>RANK(E75,E$1:E$103,1)</f>
-        <v>75</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="J75" s="1">
+        <f>COUNTIF(F$1:F$103, F75)</f>
+        <v>10</v>
+      </c>
+      <c r="K75">
+        <f>1000-D75</f>
+        <v>767</v>
+      </c>
+      <c r="L75">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>194</v>
+        <v>80</v>
       </c>
       <c r="B76" t="s">
-        <v>195</v>
+        <v>81</v>
       </c>
       <c r="C76">
-        <v>221</v>
+        <v>118</v>
       </c>
       <c r="D76">
-        <v>426</v>
+        <v>238</v>
       </c>
       <c r="E76">
-        <v>625</v>
+        <v>377</v>
       </c>
       <c r="F76" t="s">
-        <v>191</v>
+        <v>2</v>
       </c>
       <c r="G76">
         <f>RANK(C76,C$1:C$103,1)</f>
-        <v>88</v>
+        <v>34</v>
       </c>
       <c r="H76">
         <f>RANK(D76,D$1:D$103,1)</f>
-        <v>82</v>
+        <v>31</v>
       </c>
       <c r="I76">
         <f>RANK(E76,E$1:E$103,1)</f>
-        <v>75</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="J76" s="1">
+        <f>COUNTIF(F$1:F$103, F76)</f>
+        <v>10</v>
+      </c>
+      <c r="K76">
+        <f>1000-D76</f>
+        <v>762</v>
+      </c>
+      <c r="L76">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>167</v>
+        <v>78</v>
       </c>
       <c r="B77" t="s">
-        <v>168</v>
+        <v>79</v>
       </c>
       <c r="C77">
-        <v>179</v>
+        <v>118</v>
       </c>
       <c r="D77">
-        <v>405</v>
+        <v>259</v>
       </c>
       <c r="E77">
-        <v>631</v>
+        <v>411</v>
       </c>
       <c r="F77" t="s">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="G77">
         <f>RANK(C77,C$1:C$103,1)</f>
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="H77">
         <f>RANK(D77,D$1:D$103,1)</f>
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="I77">
         <f>RANK(E77,E$1:E$103,1)</f>
-        <v>77</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="J77" s="1">
+        <f>COUNTIF(F$1:F$103, F77)</f>
+        <v>10</v>
+      </c>
+      <c r="K77">
+        <f>1000-D77</f>
+        <v>741</v>
+      </c>
+      <c r="L77">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>183</v>
+        <v>93</v>
       </c>
       <c r="B78" t="s">
-        <v>184</v>
+        <v>94</v>
       </c>
       <c r="C78">
-        <v>202</v>
+        <v>130</v>
       </c>
       <c r="D78">
-        <v>417</v>
+        <v>282</v>
       </c>
       <c r="E78">
-        <v>632</v>
+        <v>471</v>
       </c>
       <c r="F78" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="G78">
         <f>RANK(C78,C$1:C$103,1)</f>
-        <v>83</v>
+        <v>41</v>
       </c>
       <c r="H78">
         <f>RANK(D78,D$1:D$103,1)</f>
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="I78">
         <f>RANK(E78,E$1:E$103,1)</f>
-        <v>78</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="J78" s="1">
+        <f>COUNTIF(F$1:F$103, F78)</f>
+        <v>10</v>
+      </c>
+      <c r="K78">
+        <f>1000-D78</f>
+        <v>718</v>
+      </c>
+      <c r="L78">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>179</v>
+        <v>112</v>
       </c>
       <c r="B79" t="s">
-        <v>180</v>
+        <v>113</v>
       </c>
       <c r="C79">
-        <v>199</v>
+        <v>142</v>
       </c>
       <c r="D79">
-        <v>401</v>
+        <v>293</v>
       </c>
       <c r="E79">
-        <v>634</v>
+        <v>473</v>
       </c>
       <c r="F79" t="s">
-        <v>179</v>
+        <v>2</v>
       </c>
       <c r="G79">
         <f>RANK(C79,C$1:C$103,1)</f>
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="H79">
         <f>RANK(D79,D$1:D$103,1)</f>
-        <v>75</v>
+        <v>47</v>
       </c>
       <c r="I79">
         <f>RANK(E79,E$1:E$103,1)</f>
-        <v>79</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="J79" s="1">
+        <f>COUNTIF(F$1:F$103, F79)</f>
+        <v>10</v>
+      </c>
+      <c r="K79">
+        <f>1000-D79</f>
+        <v>707</v>
+      </c>
+      <c r="L79">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>151</v>
+        <v>114</v>
       </c>
       <c r="B80" t="s">
-        <v>152</v>
+        <v>115</v>
       </c>
       <c r="C80">
-        <v>167</v>
+        <v>143</v>
       </c>
       <c r="D80">
-        <v>389</v>
+        <v>293</v>
       </c>
       <c r="E80">
-        <v>651</v>
+        <v>454</v>
       </c>
       <c r="F80" t="s">
-        <v>153</v>
+        <v>40</v>
       </c>
       <c r="G80">
         <f>RANK(C80,C$1:C$103,1)</f>
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="H80">
         <f>RANK(D80,D$1:D$103,1)</f>
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="I80">
         <f>RANK(E80,E$1:E$103,1)</f>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="J80" s="1">
+        <f>COUNTIF(F$1:F$103, F80)</f>
+        <v>10</v>
+      </c>
+      <c r="K80">
+        <f>1000-D80</f>
+        <v>707</v>
+      </c>
+      <c r="L80">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>163</v>
+        <v>97</v>
       </c>
       <c r="B81" t="s">
-        <v>164</v>
+        <v>98</v>
       </c>
       <c r="C81">
-        <v>178</v>
+        <v>132</v>
       </c>
       <c r="D81">
-        <v>405</v>
+        <v>294</v>
       </c>
       <c r="E81">
-        <v>662</v>
+        <v>470</v>
       </c>
       <c r="F81" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="G81">
         <f>RANK(C81,C$1:C$103,1)</f>
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="H81">
         <f>RANK(D81,D$1:D$103,1)</f>
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="I81">
         <f>RANK(E81,E$1:E$103,1)</f>
-        <v>81</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+      <c r="J81" s="1">
+        <f>COUNTIF(F$1:F$103, F81)</f>
+        <v>10</v>
+      </c>
+      <c r="K81">
+        <f>1000-D81</f>
+        <v>706</v>
+      </c>
+      <c r="L81">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>198</v>
+        <v>82</v>
       </c>
       <c r="B82" t="s">
-        <v>199</v>
+        <v>83</v>
       </c>
       <c r="C82">
-        <v>227</v>
+        <v>119</v>
       </c>
       <c r="D82">
-        <v>460</v>
+        <v>301</v>
       </c>
       <c r="E82">
-        <v>665</v>
+        <v>475</v>
       </c>
       <c r="F82" t="s">
-        <v>62</v>
+        <v>7</v>
       </c>
       <c r="G82">
         <f>RANK(C82,C$1:C$103,1)</f>
-        <v>89</v>
+        <v>37</v>
       </c>
       <c r="H82">
         <f>RANK(D82,D$1:D$103,1)</f>
-        <v>87</v>
+        <v>50</v>
       </c>
       <c r="I82">
         <f>RANK(E82,E$1:E$103,1)</f>
-        <v>82</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+      <c r="J82" s="1">
+        <f>COUNTIF(F$1:F$103, F82)</f>
+        <v>10</v>
+      </c>
+      <c r="K82">
+        <f>1000-D82</f>
+        <v>699</v>
+      </c>
+      <c r="L82">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>181</v>
+        <v>99</v>
       </c>
       <c r="B83" t="s">
-        <v>182</v>
+        <v>100</v>
       </c>
       <c r="C83">
-        <v>200</v>
+        <v>132</v>
       </c>
       <c r="D83">
-        <v>427</v>
+        <v>304</v>
       </c>
       <c r="E83">
-        <v>677</v>
+        <v>504</v>
       </c>
       <c r="F83" t="s">
-        <v>124</v>
+        <v>40</v>
       </c>
       <c r="G83">
         <f>RANK(C83,C$1:C$103,1)</f>
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="H83">
         <f>RANK(D83,D$1:D$103,1)</f>
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="I83">
         <f>RANK(E83,E$1:E$103,1)</f>
-        <v>83</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+      <c r="J83" s="1">
+        <f>COUNTIF(F$1:F$103, F83)</f>
+        <v>10</v>
+      </c>
+      <c r="K83">
+        <f>1000-D83</f>
+        <v>696</v>
+      </c>
+      <c r="L83">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>149</v>
+        <v>106</v>
       </c>
       <c r="B84" t="s">
-        <v>150</v>
+        <v>107</v>
       </c>
       <c r="C84">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="D84">
-        <v>402</v>
+        <v>313</v>
       </c>
       <c r="E84">
-        <v>692</v>
+        <v>523</v>
       </c>
       <c r="F84" t="s">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="G84">
         <f>RANK(C84,C$1:C$103,1)</f>
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="H84">
         <f>RANK(D84,D$1:D$103,1)</f>
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="I84">
         <f>RANK(E84,E$1:E$103,1)</f>
-        <v>84</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+      <c r="J84" s="1">
+        <f>COUNTIF(F$1:F$103, F84)</f>
+        <v>10</v>
+      </c>
+      <c r="K84">
+        <f>1000-D84</f>
+        <v>687</v>
+      </c>
+      <c r="L84">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="B85" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="C85">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="D85">
-        <v>420</v>
+        <v>338</v>
       </c>
       <c r="E85">
-        <v>713</v>
+        <v>523</v>
       </c>
       <c r="F85" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="G85">
         <f>RANK(C85,C$1:C$103,1)</f>
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H85">
         <f>RANK(D85,D$1:D$103,1)</f>
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="I85">
         <f>RANK(E85,E$1:E$103,1)</f>
-        <v>85</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+      <c r="J85" s="1">
+        <f>COUNTIF(F$1:F$103, F85)</f>
+        <v>10</v>
+      </c>
+      <c r="K85">
+        <f>1000-D85</f>
+        <v>662</v>
+      </c>
+      <c r="L85">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>175</v>
+        <v>154</v>
       </c>
       <c r="B86" t="s">
-        <v>176</v>
+        <v>155</v>
       </c>
       <c r="C86">
-        <v>189</v>
+        <v>169</v>
       </c>
       <c r="D86">
-        <v>453</v>
+        <v>347</v>
       </c>
       <c r="E86">
-        <v>722</v>
+        <v>539</v>
       </c>
       <c r="F86" t="s">
-        <v>153</v>
+        <v>40</v>
       </c>
       <c r="G86">
         <f>RANK(C86,C$1:C$103,1)</f>
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="H86">
         <f>RANK(D86,D$1:D$103,1)</f>
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="I86">
         <f>RANK(E86,E$1:E$103,1)</f>
-        <v>86</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+      <c r="J86" s="1">
+        <f>COUNTIF(F$1:F$103, F86)</f>
+        <v>10</v>
+      </c>
+      <c r="K86">
+        <f>1000-D86</f>
+        <v>653</v>
+      </c>
+      <c r="L86">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>192</v>
+        <v>132</v>
       </c>
       <c r="B87" t="s">
-        <v>193</v>
+        <v>133</v>
       </c>
       <c r="C87">
-        <v>218</v>
+        <v>158</v>
       </c>
       <c r="D87">
-        <v>479</v>
+        <v>352</v>
       </c>
       <c r="E87">
-        <v>745</v>
+        <v>560</v>
       </c>
       <c r="F87" t="s">
-        <v>153</v>
+        <v>7</v>
       </c>
       <c r="G87">
         <f>RANK(C87,C$1:C$103,1)</f>
-        <v>87</v>
+        <v>59</v>
       </c>
       <c r="H87">
         <f>RANK(D87,D$1:D$103,1)</f>
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="I87">
         <f>RANK(E87,E$1:E$103,1)</f>
-        <v>87</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+      <c r="J87" s="1">
+        <f>COUNTIF(F$1:F$103, F87)</f>
+        <v>10</v>
+      </c>
+      <c r="K87">
+        <f>1000-D87</f>
+        <v>648</v>
+      </c>
+      <c r="L87">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>171</v>
+        <v>202</v>
       </c>
       <c r="B88" t="s">
-        <v>172</v>
+        <v>203</v>
       </c>
       <c r="C88">
-        <v>182</v>
+        <v>240</v>
       </c>
       <c r="D88">
-        <v>442</v>
+        <v>500</v>
       </c>
       <c r="E88">
-        <v>748</v>
+        <v>811</v>
       </c>
       <c r="F88" t="s">
-        <v>162</v>
+        <v>40</v>
       </c>
       <c r="G88">
         <f>RANK(C88,C$1:C$103,1)</f>
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="H88">
         <f>RANK(D88,D$1:D$103,1)</f>
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="I88">
         <f>RANK(E88,E$1:E$103,1)</f>
-        <v>88</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+      <c r="J88" s="1">
+        <f>COUNTIF(F$1:F$103, F88)</f>
+        <v>10</v>
+      </c>
+      <c r="K88">
+        <f>1000-D88</f>
+        <v>500</v>
+      </c>
+      <c r="L88">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="B89" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="C89">
-        <v>281</v>
+        <v>242</v>
       </c>
       <c r="D89">
-        <v>515</v>
+        <v>562</v>
       </c>
       <c r="E89">
-        <v>762</v>
+        <v>931</v>
       </c>
       <c r="F89" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="G89">
         <f>RANK(C89,C$1:C$103,1)</f>
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="H89">
         <f>RANK(D89,D$1:D$103,1)</f>
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="I89">
         <f>RANK(E89,E$1:E$103,1)</f>
-        <v>89</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+      <c r="J89" s="1">
+        <f>COUNTIF(F$1:F$103, F89)</f>
+        <v>10</v>
+      </c>
+      <c r="K89">
+        <f>1000-D89</f>
+        <v>438</v>
+      </c>
+      <c r="L89">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="B90" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="C90">
-        <v>244</v>
+        <v>260</v>
       </c>
       <c r="D90">
-        <v>517</v>
+        <v>588</v>
       </c>
       <c r="E90">
-        <v>788</v>
+        <v>970</v>
       </c>
       <c r="F90" t="s">
-        <v>153</v>
+        <v>40</v>
       </c>
       <c r="G90">
         <f>RANK(C90,C$1:C$103,1)</f>
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="H90">
         <f>RANK(D90,D$1:D$103,1)</f>
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="I90">
         <f>RANK(E90,E$1:E$103,1)</f>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+      <c r="J90" s="1">
+        <f>COUNTIF(F$1:F$103, F90)</f>
+        <v>10</v>
+      </c>
+      <c r="K90">
+        <f>1000-D90</f>
+        <v>412</v>
+      </c>
+      <c r="L90">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>202</v>
+        <v>222</v>
       </c>
       <c r="B91" t="s">
-        <v>203</v>
+        <v>223</v>
       </c>
       <c r="C91">
-        <v>240</v>
+        <v>360</v>
       </c>
       <c r="D91">
-        <v>500</v>
+        <v>771</v>
       </c>
       <c r="E91">
-        <v>811</v>
+        <v>1198</v>
       </c>
       <c r="F91" t="s">
         <v>40</v>
       </c>
       <c r="G91">
         <f>RANK(C91,C$1:C$103,1)</f>
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="H91">
         <f>RANK(D91,D$1:D$103,1)</f>
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="I91">
         <f>RANK(E91,E$1:E$103,1)</f>
+        <v>102</v>
+      </c>
+      <c r="J91" s="1">
+        <f>COUNTIF(F$1:F$103, F91)</f>
+        <v>10</v>
+      </c>
+      <c r="K91">
+        <f>1000-D91</f>
+        <v>229</v>
+      </c>
+      <c r="L91">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>32</v>
+      </c>
+      <c r="B92" t="s">
+        <v>33</v>
+      </c>
+      <c r="C92">
         <v>91</v>
       </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>210</v>
-      </c>
-      <c r="B92" t="s">
-        <v>211</v>
-      </c>
-      <c r="C92">
-        <v>247</v>
-      </c>
       <c r="D92">
-        <v>517</v>
+        <v>178</v>
       </c>
       <c r="E92">
-        <v>811</v>
+        <v>318</v>
       </c>
       <c r="F92" t="s">
-        <v>86</v>
+        <v>12</v>
       </c>
       <c r="G92">
         <f>RANK(C92,C$1:C$103,1)</f>
-        <v>96</v>
+        <v>15</v>
       </c>
       <c r="H92">
         <f>RANK(D92,D$1:D$103,1)</f>
-        <v>94</v>
+        <v>5</v>
       </c>
       <c r="I92">
         <f>RANK(E92,E$1:E$103,1)</f>
-        <v>91</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="J92" s="1">
+        <f>COUNTIF(F$1:F$103, F92)</f>
+        <v>12</v>
+      </c>
+      <c r="K92">
+        <f>1000-D92</f>
+        <v>822</v>
+      </c>
+      <c r="L92">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>196</v>
+        <v>24</v>
       </c>
       <c r="B93" t="s">
-        <v>197</v>
+        <v>25</v>
       </c>
       <c r="C93">
-        <v>227</v>
+        <v>88</v>
       </c>
       <c r="D93">
-        <v>511</v>
+        <v>189</v>
       </c>
       <c r="E93">
-        <v>826</v>
+        <v>328</v>
       </c>
       <c r="F93" t="s">
-        <v>162</v>
+        <v>12</v>
       </c>
       <c r="G93">
         <f>RANK(C93,C$1:C$103,1)</f>
-        <v>89</v>
+        <v>11</v>
       </c>
       <c r="H93">
         <f>RANK(D93,D$1:D$103,1)</f>
-        <v>92</v>
+        <v>9</v>
       </c>
       <c r="I93">
         <f>RANK(E93,E$1:E$103,1)</f>
-        <v>93</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="J93" s="1">
+        <f>COUNTIF(F$1:F$103, F93)</f>
+        <v>12</v>
+      </c>
+      <c r="K93">
+        <f>1000-D93</f>
+        <v>811</v>
+      </c>
+      <c r="L93">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="B94" t="s">
-        <v>201</v>
+        <v>11</v>
       </c>
       <c r="C94">
-        <v>231</v>
+        <v>79</v>
       </c>
       <c r="D94">
-        <v>501</v>
+        <v>190</v>
       </c>
       <c r="E94">
-        <v>833</v>
+        <v>329</v>
       </c>
       <c r="F94" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="G94">
         <f>RANK(C94,C$1:C$103,1)</f>
-        <v>91</v>
+        <v>4</v>
       </c>
       <c r="H94">
         <f>RANK(D94,D$1:D$103,1)</f>
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="I94">
         <f>RANK(E94,E$1:E$103,1)</f>
-        <v>94</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="J94" s="1">
+        <f>COUNTIF(F$1:F$103, F94)</f>
+        <v>12</v>
+      </c>
+      <c r="K94">
+        <f>1000-D94</f>
+        <v>810</v>
+      </c>
+      <c r="L94">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>187</v>
+        <v>34</v>
       </c>
       <c r="B95" t="s">
-        <v>188</v>
+        <v>35</v>
       </c>
       <c r="C95">
-        <v>217</v>
+        <v>92</v>
       </c>
       <c r="D95">
-        <v>509</v>
+        <v>190</v>
       </c>
       <c r="E95">
-        <v>836</v>
+        <v>311</v>
       </c>
       <c r="F95" t="s">
-        <v>153</v>
+        <v>12</v>
       </c>
       <c r="G95">
         <f>RANK(C95,C$1:C$103,1)</f>
-        <v>85</v>
+        <v>16</v>
       </c>
       <c r="H95">
         <f>RANK(D95,D$1:D$103,1)</f>
-        <v>91</v>
+        <v>10</v>
       </c>
       <c r="I95">
         <f>RANK(E95,E$1:E$103,1)</f>
-        <v>95</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="J95" s="1">
+        <f>COUNTIF(F$1:F$103, F95)</f>
+        <v>12</v>
+      </c>
+      <c r="K95">
+        <f>1000-D95</f>
+        <v>810</v>
+      </c>
+      <c r="L95">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>208</v>
+        <v>30</v>
       </c>
       <c r="B96" t="s">
-        <v>209</v>
+        <v>31</v>
       </c>
       <c r="C96">
-        <v>245</v>
+        <v>90</v>
       </c>
       <c r="D96">
-        <v>553</v>
+        <v>195</v>
       </c>
       <c r="E96">
-        <v>868</v>
+        <v>308</v>
       </c>
       <c r="F96" t="s">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="G96">
         <f>RANK(C96,C$1:C$103,1)</f>
-        <v>95</v>
+        <v>14</v>
       </c>
       <c r="H96">
         <f>RANK(D96,D$1:D$103,1)</f>
-        <v>96</v>
+        <v>14</v>
       </c>
       <c r="I96">
         <f>RANK(E96,E$1:E$103,1)</f>
-        <v>96</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="J96" s="1">
+        <f>COUNTIF(F$1:F$103, F96)</f>
+        <v>12</v>
+      </c>
+      <c r="K96">
+        <f>1000-D96</f>
+        <v>805</v>
+      </c>
+      <c r="L96">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>214</v>
+        <v>15</v>
       </c>
       <c r="B97" t="s">
-        <v>215</v>
+        <v>16</v>
       </c>
       <c r="C97">
-        <v>264</v>
+        <v>84</v>
       </c>
       <c r="D97">
-        <v>560</v>
+        <v>197</v>
       </c>
       <c r="E97">
-        <v>888</v>
+        <v>322</v>
       </c>
       <c r="F97" t="s">
-        <v>153</v>
+        <v>12</v>
       </c>
       <c r="G97">
         <f>RANK(C97,C$1:C$103,1)</f>
-        <v>98</v>
+        <v>7</v>
       </c>
       <c r="H97">
         <f>RANK(D97,D$1:D$103,1)</f>
-        <v>97</v>
+        <v>15</v>
       </c>
       <c r="I97">
         <f>RANK(E97,E$1:E$103,1)</f>
-        <v>97</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="J97" s="1">
+        <f>COUNTIF(F$1:F$103, F97)</f>
+        <v>12</v>
+      </c>
+      <c r="K97">
+        <f>1000-D97</f>
+        <v>803</v>
+      </c>
+      <c r="L97">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>204</v>
+        <v>53</v>
       </c>
       <c r="B98" t="s">
-        <v>205</v>
+        <v>54</v>
       </c>
       <c r="C98">
-        <v>242</v>
+        <v>100</v>
       </c>
       <c r="D98">
-        <v>562</v>
+        <v>201</v>
       </c>
       <c r="E98">
-        <v>931</v>
+        <v>334</v>
       </c>
       <c r="F98" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="G98">
         <f>RANK(C98,C$1:C$103,1)</f>
-        <v>93</v>
+        <v>22</v>
       </c>
       <c r="H98">
         <f>RANK(D98,D$1:D$103,1)</f>
-        <v>98</v>
+        <v>16</v>
       </c>
       <c r="I98">
         <f>RANK(E98,E$1:E$103,1)</f>
-        <v>98</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="J98" s="1">
+        <f>COUNTIF(F$1:F$103, F98)</f>
+        <v>12</v>
+      </c>
+      <c r="K98">
+        <f>1000-D98</f>
+        <v>799</v>
+      </c>
+      <c r="L98">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>212</v>
+        <v>76</v>
       </c>
       <c r="B99" t="s">
-        <v>213</v>
+        <v>77</v>
       </c>
       <c r="C99">
-        <v>260</v>
+        <v>118</v>
       </c>
       <c r="D99">
-        <v>588</v>
+        <v>234</v>
       </c>
       <c r="E99">
-        <v>970</v>
+        <v>379</v>
       </c>
       <c r="F99" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="G99">
         <f>RANK(C99,C$1:C$103,1)</f>
-        <v>97</v>
+        <v>34</v>
       </c>
       <c r="H99">
         <f>RANK(D99,D$1:D$103,1)</f>
-        <v>99</v>
+        <v>29</v>
       </c>
       <c r="I99">
         <f>RANK(E99,E$1:E$103,1)</f>
-        <v>99</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="J99" s="1">
+        <f>COUNTIF(F$1:F$103, F99)</f>
+        <v>12</v>
+      </c>
+      <c r="K99">
+        <f>1000-D99</f>
+        <v>766</v>
+      </c>
+      <c r="L99">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>220</v>
+        <v>63</v>
       </c>
       <c r="B100" t="s">
-        <v>221</v>
+        <v>64</v>
       </c>
       <c r="C100">
-        <v>304</v>
+        <v>103</v>
       </c>
       <c r="D100">
-        <v>645</v>
+        <v>237</v>
       </c>
       <c r="E100">
-        <v>1016</v>
+        <v>402</v>
       </c>
       <c r="F100" t="s">
-        <v>153</v>
+        <v>12</v>
       </c>
       <c r="G100">
         <f>RANK(C100,C$1:C$103,1)</f>
-        <v>101</v>
+        <v>28</v>
       </c>
       <c r="H100">
         <f>RANK(D100,D$1:D$103,1)</f>
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="I100">
         <f>RANK(E100,E$1:E$103,1)</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="J100" s="1">
+        <f>COUNTIF(F$1:F$103, F100)</f>
+        <v>12</v>
+      </c>
+      <c r="K100">
+        <f>1000-D100</f>
+        <v>763</v>
+      </c>
+      <c r="L100">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>218</v>
+        <v>120</v>
       </c>
       <c r="B101" t="s">
-        <v>219</v>
+        <v>121</v>
       </c>
       <c r="C101">
-        <v>297</v>
+        <v>148</v>
       </c>
       <c r="D101">
-        <v>653</v>
+        <v>287</v>
       </c>
       <c r="E101">
-        <v>1031</v>
+        <v>437</v>
       </c>
       <c r="F101" t="s">
-        <v>153</v>
+        <v>12</v>
       </c>
       <c r="G101">
         <f>RANK(C101,C$1:C$103,1)</f>
-        <v>100</v>
+        <v>54</v>
       </c>
       <c r="H101">
         <f>RANK(D101,D$1:D$103,1)</f>
-        <v>101</v>
+        <v>45</v>
       </c>
       <c r="I101">
         <f>RANK(E101,E$1:E$103,1)</f>
-        <v>101</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+      <c r="J101" s="1">
+        <f>COUNTIF(F$1:F$103, F101)</f>
+        <v>12</v>
+      </c>
+      <c r="K101">
+        <f>1000-D101</f>
+        <v>713</v>
+      </c>
+      <c r="L101">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>222</v>
+        <v>145</v>
       </c>
       <c r="B102" t="s">
-        <v>223</v>
+        <v>146</v>
       </c>
       <c r="C102">
-        <v>360</v>
+        <v>166</v>
       </c>
       <c r="D102">
-        <v>771</v>
+        <v>314</v>
       </c>
       <c r="E102">
-        <v>1198</v>
+        <v>481</v>
       </c>
       <c r="F102" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="G102">
         <f>RANK(C102,C$1:C$103,1)</f>
-        <v>102</v>
+        <v>65</v>
       </c>
       <c r="H102">
         <f>RANK(D102,D$1:D$103,1)</f>
-        <v>102</v>
+        <v>56</v>
       </c>
       <c r="I102">
         <f>RANK(E102,E$1:E$103,1)</f>
-        <v>102</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+      <c r="J102" s="1">
+        <f>COUNTIF(F$1:F$103, F102)</f>
+        <v>12</v>
+      </c>
+      <c r="K102">
+        <f>1000-D102</f>
+        <v>686</v>
+      </c>
+      <c r="L102">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>224</v>
+        <v>158</v>
       </c>
       <c r="B103" t="s">
-        <v>225</v>
+        <v>159</v>
       </c>
       <c r="C103">
-        <v>389</v>
+        <v>172</v>
       </c>
       <c r="D103">
-        <v>822</v>
+        <v>324</v>
       </c>
       <c r="E103">
-        <v>1252</v>
+        <v>467</v>
       </c>
       <c r="F103" t="s">
-        <v>162</v>
+        <v>12</v>
       </c>
       <c r="G103">
         <f>RANK(C103,C$1:C$103,1)</f>
-        <v>103</v>
+        <v>71</v>
       </c>
       <c r="H103">
         <f>RANK(D103,D$1:D$103,1)</f>
-        <v>103</v>
+        <v>57</v>
       </c>
       <c r="I103">
         <f>RANK(E103,E$1:E$103,1)</f>
-        <v>103</v>
+        <v>46</v>
+      </c>
+      <c r="J103" s="1">
+        <f>COUNTIF(F$1:F$103, F103)</f>
+        <v>12</v>
+      </c>
+      <c r="K103">
+        <f>1000-D103</f>
+        <v>676</v>
+      </c>
+      <c r="L103">
+        <v>707</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A1:I104">
-    <sortCondition ref="I1"/>
+  <sortState ref="A1:L103">
+    <sortCondition ref="J1:J103"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
